--- a/CorrectLink/ig/StructureDefinition-FrRangeUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrRangeUcum.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -333,9 +333,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Range.low</t>
@@ -1151,7 +1148,7 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>103</v>
@@ -1160,15 +1157,15 @@
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1191,19 +1188,19 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>20</v>
@@ -1252,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1264,21 +1261,21 @@
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1301,19 +1298,19 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>20</v>
@@ -1362,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1374,13 +1371,13 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
